--- a/matrix/executed/windows/login_execute.xlsx
+++ b/matrix/executed/windows/login_execute.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\executed\windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0119B088-DD69-4EFD-B180-7408B768CCB0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D541BB8-1F14-4E76-B74D-66FF5BE77428}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
   <si>
     <t>T001</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>T0029</t>
+  </si>
+  <si>
+    <t>login username:</t>
+  </si>
+  <si>
+    <t>login password:</t>
   </si>
 </sst>
 </file>
@@ -327,16 +333,144 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp34.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp35.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp36.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp37.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp38.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp39.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp40.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp41.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp42.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp43.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp44.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp45.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp46.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp47.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp48.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp49.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp50.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp51.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp52.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp53.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp54.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp55.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp56.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp57.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp58.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp59.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp60.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp61.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp62.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp63.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp64.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp65.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2499,14 +2633,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>4</xdr:col>
           <xdr:colOff>171450</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -2515,7 +2654,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF2C532-795E-4058-B8C7-C2CDD070AB98}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2555,10 +2694,2215 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1091" name="Check Box 67" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1091"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1092" name="Check Box 68" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1092"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1093" name="Check Box 69" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1093"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1094" name="Check Box 70" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1094"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1095" name="Check Box 71" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1095"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1096" name="Check Box 72" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1096"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1097" name="Check Box 73" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1098" name="Check Box 74" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1098"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1099" name="Check Box 75" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1099"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1100" name="Check Box 76" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1100"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1101" name="Check Box 77" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1101"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1102" name="Check Box 78" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1102"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1103" name="Check Box 79" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1103"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1104" name="Check Box 80" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1104"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1105" name="Check Box 81" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1105"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1106" name="Check Box 82" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1106"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1107" name="Check Box 83" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1107"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1108" name="Check Box 84" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1108"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1109" name="Check Box 85" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1109"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1110" name="Check Box 86" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1110"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1111" name="Check Box 87" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1111"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1112" name="Check Box 88" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1112"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1113" name="Check Box 89" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1113"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1114" name="Check Box 90" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1114"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1115" name="Check Box 91" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1115"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1116" name="Check Box 92" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1116"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1117" name="Check Box 93" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1117"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1118" name="Check Box 94" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1118"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1119" name="Check Box 95" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1119"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>57150</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>133350</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>447675</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1120" name="Check Box 96" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1120"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1121" name="Check Box 97" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>66675</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1122" name="Check Box 98" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1122"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="Picture 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BF67D5-4382-4263-B3D5-B7BA9AA99DAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="619125" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2825,10 +5169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:O8"/>
+  <dimension ref="A2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2836,8 +5180,8 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2881,7 +5225,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>45306</v>
       </c>
@@ -2899,7 +5243,10 @@
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2940,7 +5287,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -2955,7 +5302,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="2:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C7" s="2" t="s">
         <v>17</v>
       </c>
@@ -2966,10 +5313,133 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>45307</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3704,6 +6174,710 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1091" r:id="rId36" name="Check Box 67">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1092" r:id="rId37" name="Check Box 68">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1093" r:id="rId38" name="Check Box 69">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1094" r:id="rId39" name="Check Box 70">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1095" r:id="rId40" name="Check Box 71">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1096" r:id="rId41" name="Check Box 72">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1097" r:id="rId42" name="Check Box 73">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1098" r:id="rId43" name="Check Box 74">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1099" r:id="rId44" name="Check Box 75">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1100" r:id="rId45" name="Check Box 76">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1101" r:id="rId46" name="Check Box 77">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1102" r:id="rId47" name="Check Box 78">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1103" r:id="rId48" name="Check Box 79">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1104" r:id="rId49" name="Check Box 80">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1105" r:id="rId50" name="Check Box 81">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1106" r:id="rId51" name="Check Box 82">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1107" r:id="rId52" name="Check Box 83">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1108" r:id="rId53" name="Check Box 84">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1109" r:id="rId54" name="Check Box 85">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1110" r:id="rId55" name="Check Box 86">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1111" r:id="rId56" name="Check Box 87">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1112" r:id="rId57" name="Check Box 88">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1113" r:id="rId58" name="Check Box 89">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1114" r:id="rId59" name="Check Box 90">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1115" r:id="rId60" name="Check Box 91">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1116" r:id="rId61" name="Check Box 92">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1117" r:id="rId62" name="Check Box 93">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1118" r:id="rId63" name="Check Box 94">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1119" r:id="rId64" name="Check Box 95">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1120" r:id="rId65" name="Check Box 96">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>57150</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>133350</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>447675</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>19050</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1121" r:id="rId66" name="Check Box 97">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1122" r:id="rId67" name="Check Box 98">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>

--- a/matrix/executed/windows/login_execute.xlsx
+++ b/matrix/executed/windows/login_execute.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases\matrix\executed\windows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\office\SymlexVPNTestCases_bk\matrix\executed\windows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D541BB8-1F14-4E76-B74D-66FF5BE77428}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ACE9B46-A051-4891-96B1-EFA62D152EB7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="34">
   <si>
     <t>T001</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>login password:</t>
+  </si>
+  <si>
+    <t>login page:</t>
+  </si>
+  <si>
+    <t>T0030</t>
   </si>
 </sst>
 </file>
@@ -473,15 +479,151 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp66.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp67.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp68.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp69.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp70.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp71.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp72.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp73.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp74.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp75.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp76.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp77.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp78.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp79.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp80.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp81.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp82.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp83.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp84.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp85.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp86.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp87.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp88.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp89.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp90.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp91.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp92.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp93.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp94.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp95.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp96.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp97.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp98.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp99.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
@@ -4844,23 +4986,23 @@
   </mc:AlternateContent>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="67" name="Picture 66">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BF67D5-4382-4263-B3D5-B7BA9AA99DAF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4883,7 +5025,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="2571750" y="581025"/>
           <a:ext cx="619125" cy="200025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4903,6 +5045,2335 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1156" name="Check Box 132" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1156"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1157" name="Check Box 133" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1157"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1158" name="Check Box 134" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1158"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1159" name="Check Box 135" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1159"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1160" name="Check Box 136" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1160"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1161" name="Check Box 137" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1161"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1162" name="Check Box 138" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1162"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1163" name="Check Box 139" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1163"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1164" name="Check Box 140" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1164"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1165" name="Check Box 141" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1165"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1166" name="Check Box 142" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1166"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1167" name="Check Box 143" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1167"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1168" name="Check Box 144" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1168"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1169" name="Check Box 145" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1169"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1170" name="Check Box 146" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1170"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1171" name="Check Box 147" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1171"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1172" name="Check Box 148" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1172"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1173" name="Check Box 149" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1173"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1174" name="Check Box 150" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1174"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>6</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1175" name="Check Box 151" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1175"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1176" name="Check Box 152" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1176"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1177" name="Check Box 153" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1177"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1178" name="Check Box 154" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1178"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1179" name="Check Box 155" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1179"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1180" name="Check Box 156" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1180"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1181" name="Check Box 157" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1181"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1182" name="Check Box 158" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1182"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1183" name="Check Box 159" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1183"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>13</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1184" name="Check Box 160" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1184"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>14</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1185" name="Check Box 161" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1185"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1186" name="Check Box 162" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1186"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1187" name="Check Box 163" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1187"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>561975</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>47625</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1188" name="Check Box 164" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1188"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="619125" cy="200025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="135" name="Picture 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2571750" y="581025"/>
+          <a:ext cx="619125" cy="200025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>5</xdr:col>
+          <xdr:colOff>171450</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="390525" cy="295275"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1189" name="Check Box 165" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1189"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26226EC4-5882-414B-8020-38671AB24075}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -5169,10 +7640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O17"/>
+  <dimension ref="A2:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5437,9 +7908,151 @@
       <c r="N15" s="4"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3">
+        <v>45307</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6878,6 +9491,754 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1156" r:id="rId68" name="Check Box 132">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1157" r:id="rId69" name="Check Box 133">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1158" r:id="rId70" name="Check Box 134">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1159" r:id="rId71" name="Check Box 135">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1160" r:id="rId72" name="Check Box 136">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1161" r:id="rId73" name="Check Box 137">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1162" r:id="rId74" name="Check Box 138">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1163" r:id="rId75" name="Check Box 139">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1164" r:id="rId76" name="Check Box 140">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1165" r:id="rId77" name="Check Box 141">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1166" r:id="rId78" name="Check Box 142">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1167" r:id="rId79" name="Check Box 143">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1168" r:id="rId80" name="Check Box 144">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1169" r:id="rId81" name="Check Box 145">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1170" r:id="rId82" name="Check Box 146">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1171" r:id="rId83" name="Check Box 147">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1172" r:id="rId84" name="Check Box 148">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1173" r:id="rId85" name="Check Box 149">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1174" r:id="rId86" name="Check Box 150">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1175" r:id="rId87" name="Check Box 151">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>6</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1176" r:id="rId88" name="Check Box 152">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>7</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1177" r:id="rId89" name="Check Box 153">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>8</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1178" r:id="rId90" name="Check Box 154">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1179" r:id="rId91" name="Check Box 155">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>10</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1180" r:id="rId92" name="Check Box 156">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1181" r:id="rId93" name="Check Box 157">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1182" r:id="rId94" name="Check Box 158">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1183" r:id="rId95" name="Check Box 159">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>12</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1184" r:id="rId96" name="Check Box 160">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>13</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1185" r:id="rId97" name="Check Box 161">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>14</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>38100</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1186" r:id="rId98" name="Check Box 162">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1187" r:id="rId99" name="Check Box 163">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>3</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1188" r:id="rId100" name="Check Box 164">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>4</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1189" r:id="rId101" name="Check Box 165">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>171450</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>152400</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>5</xdr:col>
+                    <xdr:colOff>561975</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>47625</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
